--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>72.69474493649091</v>
+        <v>98.91277700000001</v>
       </c>
       <c r="H2">
-        <v>72.69474493649091</v>
+        <v>296.738331</v>
       </c>
       <c r="I2">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="J2">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.719386869492229</v>
+        <v>16.32975033333333</v>
       </c>
       <c r="N2">
-        <v>8.719386869492229</v>
+        <v>48.989251</v>
       </c>
       <c r="O2">
-        <v>0.2209978195917514</v>
+        <v>0.3418592381614251</v>
       </c>
       <c r="P2">
-        <v>0.2209978195917514</v>
+        <v>0.3418592381614251</v>
       </c>
       <c r="Q2">
-        <v>633.8536044803255</v>
+        <v>1615.220953186676</v>
       </c>
       <c r="R2">
-        <v>633.8536044803255</v>
+        <v>14536.98857868008</v>
       </c>
       <c r="S2">
-        <v>0.1681289465329572</v>
+        <v>0.277617909265453</v>
       </c>
       <c r="T2">
-        <v>0.1681289465329572</v>
+        <v>0.277617909265453</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>72.69474493649091</v>
+        <v>98.91277700000001</v>
       </c>
       <c r="H3">
-        <v>72.69474493649091</v>
+        <v>296.738331</v>
       </c>
       <c r="I3">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="J3">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.4247429179386</v>
+        <v>26.81766766666667</v>
       </c>
       <c r="N3">
-        <v>26.4247429179386</v>
+        <v>80.453003</v>
       </c>
       <c r="O3">
-        <v>0.6697501390343844</v>
+        <v>0.5614211638667195</v>
       </c>
       <c r="P3">
-        <v>0.6697501390343844</v>
+        <v>0.5614211638667195</v>
       </c>
       <c r="Q3">
-        <v>1920.939946431891</v>
+        <v>2652.60998157311</v>
       </c>
       <c r="R3">
-        <v>1920.939946431891</v>
+        <v>23873.48983415799</v>
       </c>
       <c r="S3">
-        <v>0.5095271325489383</v>
+        <v>0.4559203096815507</v>
       </c>
       <c r="T3">
-        <v>0.5095271325489383</v>
+        <v>0.4559203096815507</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>72.69474493649091</v>
+        <v>98.91277700000001</v>
       </c>
       <c r="H4">
-        <v>72.69474493649091</v>
+        <v>296.738331</v>
       </c>
       <c r="I4">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="J4">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.31049870437749</v>
+        <v>4.620050333333333</v>
       </c>
       <c r="N4">
-        <v>4.31049870437749</v>
+        <v>13.860151</v>
       </c>
       <c r="O4">
-        <v>0.1092520413738644</v>
+        <v>0.09671959797185539</v>
       </c>
       <c r="P4">
-        <v>0.1092520413738644</v>
+        <v>0.09671959797185539</v>
       </c>
       <c r="Q4">
-        <v>313.3506038637962</v>
+        <v>456.9820083497757</v>
       </c>
       <c r="R4">
-        <v>313.3506038637962</v>
+        <v>4112.838075147981</v>
       </c>
       <c r="S4">
-        <v>0.08311589072098004</v>
+        <v>0.07854429419064761</v>
       </c>
       <c r="T4">
-        <v>0.08311589072098004</v>
+        <v>0.07854429419064761</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.0230913139886</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H5">
-        <v>17.0230913139886</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I5">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="J5">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.719386869492229</v>
+        <v>16.32975033333333</v>
       </c>
       <c r="N5">
-        <v>8.719386869492229</v>
+        <v>48.989251</v>
       </c>
       <c r="O5">
-        <v>0.2209978195917514</v>
+        <v>0.3418592381614251</v>
       </c>
       <c r="P5">
-        <v>0.2209978195917514</v>
+        <v>0.3418592381614251</v>
       </c>
       <c r="Q5">
-        <v>148.4309188813594</v>
+        <v>278.3997516738743</v>
       </c>
       <c r="R5">
-        <v>148.4309188813594</v>
+        <v>2505.597765064868</v>
       </c>
       <c r="S5">
-        <v>0.03937113214793811</v>
+        <v>0.04785026893518127</v>
       </c>
       <c r="T5">
-        <v>0.03937113214793811</v>
+        <v>0.04785026893518127</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.0230913139886</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H6">
-        <v>17.0230913139886</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I6">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="J6">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.4247429179386</v>
+        <v>26.81766766666667</v>
       </c>
       <c r="N6">
-        <v>26.4247429179386</v>
+        <v>80.453003</v>
       </c>
       <c r="O6">
-        <v>0.6697501390343844</v>
+        <v>0.5614211638667195</v>
       </c>
       <c r="P6">
-        <v>0.6697501390343844</v>
+        <v>0.5614211638667195</v>
       </c>
       <c r="Q6">
-        <v>449.8308116407424</v>
+        <v>457.2042968490672</v>
       </c>
       <c r="R6">
-        <v>449.8308116407424</v>
+        <v>4114.838671641604</v>
       </c>
       <c r="S6">
-        <v>0.1193171103621462</v>
+        <v>0.07858250027527355</v>
       </c>
       <c r="T6">
-        <v>0.1193171103621462</v>
+        <v>0.07858250027527355</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.0230913139886</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H7">
-        <v>17.0230913139886</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I7">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="J7">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.31049870437749</v>
+        <v>4.620050333333333</v>
       </c>
       <c r="N7">
-        <v>4.31049870437749</v>
+        <v>13.860151</v>
       </c>
       <c r="O7">
-        <v>0.1092520413738644</v>
+        <v>0.09671959797185539</v>
       </c>
       <c r="P7">
-        <v>0.1092520413738644</v>
+        <v>0.09671959797185539</v>
       </c>
       <c r="Q7">
-        <v>73.37801305344756</v>
+        <v>78.76549483400757</v>
       </c>
       <c r="R7">
-        <v>73.37801305344756</v>
+        <v>708.8894535060681</v>
       </c>
       <c r="S7">
-        <v>0.01946343437373425</v>
+        <v>0.01353790758777311</v>
       </c>
       <c r="T7">
-        <v>0.01946343437373425</v>
+        <v>0.01353790758777311</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.83608505832861</v>
+        <v>5.839988000000001</v>
       </c>
       <c r="H8">
-        <v>5.83608505832861</v>
+        <v>17.519964</v>
       </c>
       <c r="I8">
-        <v>0.06107635331330608</v>
+        <v>0.0479468100641207</v>
       </c>
       <c r="J8">
-        <v>0.06107635331330608</v>
+        <v>0.04794681006412069</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.719386869492229</v>
+        <v>16.32975033333333</v>
       </c>
       <c r="N8">
-        <v>8.719386869492229</v>
+        <v>48.989251</v>
       </c>
       <c r="O8">
-        <v>0.2209978195917514</v>
+        <v>0.3418592381614251</v>
       </c>
       <c r="P8">
-        <v>0.2209978195917514</v>
+        <v>0.3418592381614251</v>
       </c>
       <c r="Q8">
-        <v>50.88708342683027</v>
+        <v>95.36554598966268</v>
       </c>
       <c r="R8">
-        <v>50.88708342683027</v>
+        <v>858.289913906964</v>
       </c>
       <c r="S8">
-        <v>0.01349774091085608</v>
+        <v>0.01639105996079085</v>
       </c>
       <c r="T8">
-        <v>0.01349774091085608</v>
+        <v>0.01639105996079085</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.83608505832861</v>
+        <v>5.839988000000001</v>
       </c>
       <c r="H9">
-        <v>5.83608505832861</v>
+        <v>17.519964</v>
       </c>
       <c r="I9">
-        <v>0.06107635331330608</v>
+        <v>0.0479468100641207</v>
       </c>
       <c r="J9">
-        <v>0.06107635331330608</v>
+        <v>0.04794681006412069</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.4247429179386</v>
+        <v>26.81766766666667</v>
       </c>
       <c r="N9">
-        <v>26.4247429179386</v>
+        <v>80.453003</v>
       </c>
       <c r="O9">
-        <v>0.6697501390343844</v>
+        <v>0.5614211638667195</v>
       </c>
       <c r="P9">
-        <v>0.6697501390343844</v>
+        <v>0.5614211638667195</v>
       </c>
       <c r="Q9">
-        <v>154.2170473135562</v>
+        <v>156.6148573613214</v>
       </c>
       <c r="R9">
-        <v>154.2170473135562</v>
+        <v>1409.533716251892</v>
       </c>
       <c r="S9">
-        <v>0.04090589612329993</v>
+        <v>0.02691835390989518</v>
       </c>
       <c r="T9">
-        <v>0.04090589612329993</v>
+        <v>0.02691835390989518</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.83608505832861</v>
+        <v>5.839988000000001</v>
       </c>
       <c r="H10">
-        <v>5.83608505832861</v>
+        <v>17.519964</v>
       </c>
       <c r="I10">
-        <v>0.06107635331330608</v>
+        <v>0.0479468100641207</v>
       </c>
       <c r="J10">
-        <v>0.06107635331330608</v>
+        <v>0.04794681006412069</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.31049870437749</v>
+        <v>4.620050333333333</v>
       </c>
       <c r="N10">
-        <v>4.31049870437749</v>
+        <v>13.860151</v>
       </c>
       <c r="O10">
-        <v>0.1092520413738644</v>
+        <v>0.09671959797185539</v>
       </c>
       <c r="P10">
-        <v>0.1092520413738644</v>
+        <v>0.09671959797185539</v>
       </c>
       <c r="Q10">
-        <v>25.1564370825623</v>
+        <v>26.98103850606267</v>
       </c>
       <c r="R10">
-        <v>25.1564370825623</v>
+        <v>242.829346554564</v>
       </c>
       <c r="S10">
-        <v>0.006672716279150073</v>
+        <v>0.004637396193434664</v>
       </c>
       <c r="T10">
-        <v>0.006672716279150073</v>
+        <v>0.004637396193434663</v>
       </c>
     </row>
   </sheetData>
